--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,26 +756,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-22T16:30:59.287580</t>
+          <t>2021-07-23T02:26:51.337998</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-07-23T00:30:58</t>
+          <t>2021-07-23T04:26:46</t>
         </is>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1627000258</v>
+        <v>1627014406</v>
       </c>
       <c r="F2" t="n">
-        <v>1626971358</v>
+        <v>1627007107</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0x6c76d6ba1641b5c857b55c9e1786a039897ae56d7d6017b0b8fa9e18fd557d21</t>
+          <t>0x3724a6bad890de8998aed8c6fcc61e5a7dfcd59d953edebee6a53c33495b0e5c</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>124000000000000000.0000000000</t>
+          <t>133000000000000000.0000000000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1240000000000000</t>
+          <t>1330000000000000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0x23b872dd00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000cdc2eceeb718b7febd67d18fd7a2fa36f839fd40000000000000000000000000000000000000000000000000000000000001566</t>
+          <t>0x23b872dd00000000000000000000000000000000000000000000000000000000000000000000000000000000000000008249b4417d752cda7022554b111a2f7c3323da060000000000000000000000000000000000000000000000000000000000001566</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>124000000000000000</t>
+          <t>133000000000000000</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>31853581269842672978680663543497790710541411937446593174980698690364421149162</t>
+          <t>20639483450222611293504570282524924318059802967165126658734627575340007104385</t>
         </is>
       </c>
       <c r="AE2" t="n">
@@ -890,12 +890,12 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0xfe1f10f5eee106717e845fcc37a94e07a3ada5db9702ca0c8d60da77aa234c85</t>
+          <t>0x59afbdadffc381136184b8dba5373a1cbc830ba0eb9c5c3cee9daba2a5cb5c88</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0x15527ba1a80b79a9abffcc8d875efc9721a2f93c7a42e74b02c0e055adb4ab18</t>
+          <t>0x446cad6dde2c0e4626cb6ca5e167ad04463e48778214476bc7436d5c597444d6</t>
         </is>
       </c>
       <c r="AH2" t="b">
@@ -912,7 +912,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0xb26d2778c7e90a642e0d88914f3005348181e34324ff58b8749b2a1f90b9cb38</t>
+          <t>0xcb710e83254751118ab63c7bfd620bbae52ce9989fa8d2b9b003a447d537686f</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -930,19 +930,15 @@
           <t>ERC721</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>HerkshireBathawayRealEstate</t>
-        </is>
-      </c>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/opensea-static/opensea-profile/9.png</t>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/7.png</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0x0cdc2eceeb718b7febd67d18fd7a2fa36f839fd4</t>
+          <t>0x8249b4417d752cda7022554b111a2f7c3323da06</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr"/>
@@ -1018,7 +1014,7 @@
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>2027.700000000000045000</t>
+          <t>2063.719999999999800000</t>
         </is>
       </c>
     </row>
@@ -1028,26 +1024,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-07-22T13:15:17.264875</t>
+          <t>2021-07-23T00:54:15.905532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-07-23T10:19:42</t>
+          <t>2021-07-23T23:21:19</t>
         </is>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1627035582</v>
+        <v>1627082479</v>
       </c>
       <c r="F3" t="n">
-        <v>1626959612</v>
+        <v>1627001553</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0xef510cdae2f4d94b153a6b71eca83bd81ce0c863b7841d13e10b54b0ddbe8de0</t>
+          <t>0x0d0c7d723f058493c99c90148cad7a5002cd10acf8518b4e5dbdbdc25f998cc7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1057,12 +1053,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>123000000000000000.0000000000</t>
+          <t>130000000000000000.0000000000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1230000000000000</t>
+          <t>1300000000000000</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1114,7 +1110,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566</t>
+          <t>0x23b872dd0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000792a4ba75d04ca9ca369328736844e64928080920000000000000000000000000000000000000000000000000000000000001566</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>123000000000000000</t>
+          <t>130000000000000000</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1154,7 +1150,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>40894784561982867332627611566104062480602654460596944182411762954639387733994</t>
+          <t>18847090867684994452233122722601024441187212529845096456333665889826023711380</t>
         </is>
       </c>
       <c r="AE3" t="n">
@@ -1162,12 +1158,12 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0xec2934828c5ebb8354975fd34b5f3fd51f51e230dd6fe8e97aa78427e5857763</t>
+          <t>0x5d9d0c3ee6dd128aba0788610910d1a26cb6319ea5caa50b5dafa32b9bd40f8f</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0x51cf8bf01f1c686bd8e5305214f69115b50dc0b373f12e9ebd514a29ec2eea23</t>
+          <t>0x731176f790b23aecbdfe7e5d110a357782662a295982ae59b65928aa15b91f66</t>
         </is>
       </c>
       <c r="AH3" t="b">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0xba53282646dc38c15244d552e74929520c75411ac688c3cd198fd49c5f8cea34</t>
+          <t>0x924e8e91a363527a0275e8dcfdfa2c15f9b9808f5fa370ba626ff8f35c37c17a</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1204,7 +1200,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>Sanders333</t>
+          <t>Butters666</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1214,7 +1210,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574</t>
+          <t>0x792a4ba75d04ca9ca369328736844e6492808092</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr"/>
@@ -1290,7 +1286,551 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2027.700000000000045000</t>
+          <t>2063.719999999999800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-07-22T21:41:13.013857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021-07-23T20:49:31</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1627073371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1626989965</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0x892b3e5cd161c16ce9afb0f376d2695e5c24b3ce0ad0e54f0a2b24b24c6c6f14</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0x7be8076f4ea4a4ad08075c2508e481d6c946d12b</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>125000000000000000.0000000000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1250000000000000</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>125000000000000000</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>94615897778944020430428835460705028788793008878645173732692119753802041938409</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0x31f7b8a330f3091332b28c9bf9c48610a3c27a25e3d00c499d3345d33f68786c</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0x442e954f6537ba7765a19cc92ec8482a9cfa09116446440063b8f44f3b5a67fb</t>
+        </is>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>0x7a83c7715aeb54e9611140ef1abc6a92e81fe4a428c2021791b02880bb8283f3</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>5478</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ERC721</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Sanders333</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/21.png</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>NullAddress</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/1.png</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>OS-Wallet</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/28.png</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0x5b3256965e7c3cf26e11fcaf296dfc8807c01073</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Wrapped Ether</t>
+        </is>
+      </c>
+      <c r="BJ4" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>1.000000000000000</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>2063.719999999999800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-07-22T13:15:17.264875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-07-23T10:19:42</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1627035582</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1626959612</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0xef510cdae2f4d94b153a6b71eca83bd81ce0c863b7841d13e10b54b0ddbe8de0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0x7be8076f4ea4a4ad08075c2508e481d6c946d12b</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>123000000000000000.0000000000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1230000000000000</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>123000000000000000</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>40894784561982867332627611566104062480602654460596944182411762954639387733994</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0xec2934828c5ebb8354975fd34b5f3fd51f51e230dd6fe8e97aa78427e5857763</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0x51cf8bf01f1c686bd8e5305214f69115b50dc0b373f12e9ebd514a29ec2eea23</t>
+        </is>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0xba53282646dc38c15244d552e74929520c75411ac688c3cd198fd49c5f8cea34</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>5478</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ERC721</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Sanders333</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/21.png</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>NullAddress</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/1.png</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>0x0000000000000000000000000000000000000000</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>OS-Wallet</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>https://storage.googleapis.com/opensea-static/opensea-profile/28.png</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0x5b3256965e7c3cf26e11fcaf296dfc8807c01073</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>Wrapped Ether</t>
+        </is>
+      </c>
+      <c r="BJ5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>1.000000000000000</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>2063.719999999999800000</t>
         </is>
       </c>
     </row>
